--- a/info/metricas/RF.xlsx
+++ b/info/metricas/RF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Error_Máximo</t>
+          <t>MaxError</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -461,15 +461,20 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Coef_Determinación</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>varianzaExplicada</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Iteracion</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Tecnica</t>
         </is>
@@ -480,27 +485,30 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1413.179</v>
+        <v>-1869.448</v>
       </c>
       <c r="C2" t="n">
-        <v>-77014.10184155496</v>
+        <v>-70499.4241405389</v>
       </c>
       <c r="D2" t="n">
-        <v>-198.7666303253013</v>
+        <v>-170.0034617961182</v>
       </c>
       <c r="E2" t="n">
-        <v>-277.5141471016477</v>
+        <v>-265.5172765387196</v>
       </c>
       <c r="F2" t="n">
-        <v>-134.305</v>
+        <v>-99.43249999999998</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8041468602133853</v>
+        <v>0.8089683191531065</v>
       </c>
       <c r="H2" t="n">
+        <v>0.8090019768391173</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>RF00</t>
         </is>
@@ -511,27 +519,30 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1363.643</v>
+        <v>-2292.543</v>
       </c>
       <c r="C3" t="n">
-        <v>-76956.86038776906</v>
+        <v>-74526.09810995223</v>
       </c>
       <c r="D3" t="n">
-        <v>-197.0447882101034</v>
+        <v>-172.6551090582898</v>
       </c>
       <c r="E3" t="n">
-        <v>-277.4109954341556</v>
+        <v>-272.9946851313267</v>
       </c>
       <c r="F3" t="n">
-        <v>-132.4159999999998</v>
+        <v>-98.72850000000005</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8006831617083763</v>
+        <v>0.8009522149371905</v>
       </c>
       <c r="H3" t="n">
+        <v>0.8009574455070991</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>RF00</t>
         </is>
@@ -542,27 +553,30 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1568.872</v>
+        <v>-2220.031</v>
       </c>
       <c r="C4" t="n">
-        <v>-77008.99931300143</v>
+        <v>-76472.80875023842</v>
       </c>
       <c r="D4" t="n">
-        <v>-197.9472434362144</v>
+        <v>-173.7506960563695</v>
       </c>
       <c r="E4" t="n">
-        <v>-277.5049536729055</v>
+        <v>-276.5371742645795</v>
       </c>
       <c r="F4" t="n">
-        <v>-135.2569999999999</v>
+        <v>-102.5810000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8064350239187177</v>
+        <v>0.7983585936661561</v>
       </c>
       <c r="H4" t="n">
+        <v>0.7984205190350975</v>
+      </c>
+      <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>RF00</t>
         </is>
@@ -573,27 +587,30 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1431.106</v>
+        <v>-2197.574</v>
       </c>
       <c r="C5" t="n">
-        <v>-75351.34048738527</v>
+        <v>-71456.55965960333</v>
       </c>
       <c r="D5" t="n">
-        <v>-195.6370735583999</v>
+        <v>-171.8450599897956</v>
       </c>
       <c r="E5" t="n">
-        <v>-274.5019863086336</v>
+        <v>-267.3135979698813</v>
       </c>
       <c r="F5" t="n">
-        <v>-135.38</v>
+        <v>-104.2320000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8064736382002733</v>
+        <v>0.8008916916819726</v>
       </c>
       <c r="H5" t="n">
+        <v>0.8009422483239279</v>
+      </c>
+      <c r="I5" t="n">
         <v>3</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>RF00</t>
         </is>
@@ -604,27 +621,30 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1305.896</v>
+        <v>-2002.858</v>
       </c>
       <c r="C6" t="n">
-        <v>-73660.3849241806</v>
+        <v>-72591.00512431396</v>
       </c>
       <c r="D6" t="n">
-        <v>-194.053463220625</v>
+        <v>-168.921431637792</v>
       </c>
       <c r="E6" t="n">
-        <v>-271.4044673990843</v>
+        <v>-269.4271796317401</v>
       </c>
       <c r="F6" t="n">
-        <v>-135.627</v>
+        <v>-97.03099999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8151394247847812</v>
+        <v>0.7987600717322793</v>
       </c>
       <c r="H6" t="n">
+        <v>0.7989263570720344</v>
+      </c>
+      <c r="I6" t="n">
         <v>4</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>RF00</t>
         </is>
@@ -635,27 +655,30 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1747.912</v>
+        <v>-2257.462</v>
       </c>
       <c r="C7" t="n">
-        <v>-73614.03250817962</v>
+        <v>-76640.11428105204</v>
       </c>
       <c r="D7" t="n">
-        <v>-194.8815443395388</v>
+        <v>-172.5418651656641</v>
       </c>
       <c r="E7" t="n">
-        <v>-271.3190603481068</v>
+        <v>-276.839509971124</v>
       </c>
       <c r="F7" t="n">
-        <v>-136.636</v>
+        <v>-97.285</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8042544178081341</v>
+        <v>0.7978273948071024</v>
       </c>
       <c r="H7" t="n">
+        <v>0.7979882035205039</v>
+      </c>
+      <c r="I7" t="n">
         <v>5</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>RF00</t>
         </is>
@@ -666,27 +689,30 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-2060.955</v>
+        <v>-2060.567</v>
       </c>
       <c r="C8" t="n">
-        <v>-78252.41878942339</v>
+        <v>-77487.60343977349</v>
       </c>
       <c r="D8" t="n">
-        <v>-197.6869247181542</v>
+        <v>-174.0497767312611</v>
       </c>
       <c r="E8" t="n">
-        <v>-279.7363379852953</v>
+        <v>-278.365952371646</v>
       </c>
       <c r="F8" t="n">
-        <v>-135.689</v>
+        <v>-97.97999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7991481855107228</v>
+        <v>0.7935404483377395</v>
       </c>
       <c r="H8" t="n">
+        <v>0.7935591719311303</v>
+      </c>
+      <c r="I8" t="n">
         <v>6</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>RF00</t>
         </is>
@@ -697,27 +723,30 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1681.613</v>
+        <v>-2328.657</v>
       </c>
       <c r="C9" t="n">
-        <v>-74944.38486240534</v>
+        <v>-74817.47612274233</v>
       </c>
       <c r="D9" t="n">
-        <v>-195.4556327334191</v>
+        <v>-172.0073885201013</v>
       </c>
       <c r="E9" t="n">
-        <v>-273.7597210372726</v>
+        <v>-273.5278342742148</v>
       </c>
       <c r="F9" t="n">
-        <v>-136.514</v>
+        <v>-95.33600000000007</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8097810097960672</v>
+        <v>0.7931645324064065</v>
       </c>
       <c r="H9" t="n">
+        <v>0.7934514916525873</v>
+      </c>
+      <c r="I9" t="n">
         <v>7</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>RF00</t>
         </is>
@@ -728,27 +757,30 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1652.243</v>
+        <v>-2424.414</v>
       </c>
       <c r="C10" t="n">
-        <v>-73724.57174377787</v>
+        <v>-79785.09326153927</v>
       </c>
       <c r="D10" t="n">
-        <v>-194.2247014477504</v>
+        <v>-175.5588181754881</v>
       </c>
       <c r="E10" t="n">
-        <v>-271.5226910292727</v>
+        <v>-282.4625519631572</v>
       </c>
       <c r="F10" t="n">
-        <v>-131.3549999999998</v>
+        <v>-98.624</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8163804048313379</v>
+        <v>0.7899703498671613</v>
       </c>
       <c r="H10" t="n">
+        <v>0.790038039785853</v>
+      </c>
+      <c r="I10" t="n">
         <v>8</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>RF00</t>
         </is>
@@ -759,27 +791,30 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1933.898</v>
+        <v>-2342.251</v>
       </c>
       <c r="C11" t="n">
-        <v>-76586.93155197513</v>
+        <v>-73204.73871539053</v>
       </c>
       <c r="D11" t="n">
-        <v>-196.6446744584076</v>
+        <v>-174.327709790806</v>
       </c>
       <c r="E11" t="n">
-        <v>-276.7434399438858</v>
+        <v>-270.5637424256815</v>
       </c>
       <c r="F11" t="n">
-        <v>-134.647</v>
+        <v>-102.502</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7961572612256856</v>
+        <v>0.8068949467221148</v>
       </c>
       <c r="H11" t="n">
+        <v>0.8069116362797584</v>
+      </c>
+      <c r="I11" t="n">
         <v>9</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>RF00</t>
         </is>
@@ -790,27 +825,30 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1300.354927535203</v>
+        <v>-1684.574663876953</v>
       </c>
       <c r="C12" t="n">
-        <v>-77170.32989434552</v>
+        <v>-68641.33942813883</v>
       </c>
       <c r="D12" t="n">
-        <v>-204.9909995472395</v>
+        <v>-175.6607110753163</v>
       </c>
       <c r="E12" t="n">
-        <v>-277.7954821345112</v>
+        <v>-261.9949225235841</v>
       </c>
       <c r="F12" t="n">
-        <v>-146.2753570487645</v>
+        <v>-110.157736594077</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8037495595381826</v>
+        <v>0.814003155254152</v>
       </c>
       <c r="H12" t="n">
+        <v>0.814015695214387</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>RF01</t>
         </is>
@@ -821,27 +859,30 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1354.194006551716</v>
+        <v>-2049.912627139328</v>
       </c>
       <c r="C13" t="n">
-        <v>-79845.19855126637</v>
+        <v>-70678.06725642629</v>
       </c>
       <c r="D13" t="n">
-        <v>-210.4346175388453</v>
+        <v>-176.430938696156</v>
       </c>
       <c r="E13" t="n">
-        <v>-282.5689270802195</v>
+        <v>-265.8534695211373</v>
       </c>
       <c r="F13" t="n">
-        <v>-154.4726635193923</v>
+        <v>-106.2988129808725</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7932024195397831</v>
+        <v>0.811229715539968</v>
       </c>
       <c r="H13" t="n">
+        <v>0.8112408305457013</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>RF01</t>
         </is>
@@ -852,27 +893,30 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1679.407405660118</v>
+        <v>-2014.92025560002</v>
       </c>
       <c r="C14" t="n">
-        <v>-78848.49925574005</v>
+        <v>-77147.1584396737</v>
       </c>
       <c r="D14" t="n">
-        <v>-207.0255014178676</v>
+        <v>-180.8364070911917</v>
       </c>
       <c r="E14" t="n">
-        <v>-280.7997493868897</v>
+        <v>-277.7537730430925</v>
       </c>
       <c r="F14" t="n">
-        <v>-149.9263841613291</v>
+        <v>-112.4252505584876</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8018113725845338</v>
+        <v>0.7965804868859721</v>
       </c>
       <c r="H14" t="n">
+        <v>0.7965822371937054</v>
+      </c>
+      <c r="I14" t="n">
         <v>2</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>RF01</t>
         </is>
@@ -883,27 +927,30 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1331.83756735465</v>
+        <v>-2091.644415464477</v>
       </c>
       <c r="C15" t="n">
-        <v>-78598.12706000825</v>
+        <v>-69725.76452688678</v>
       </c>
       <c r="D15" t="n">
-        <v>-207.6225125159171</v>
+        <v>-177.5095354715843</v>
       </c>
       <c r="E15" t="n">
-        <v>-280.3535750797701</v>
+        <v>-264.0563661926877</v>
       </c>
       <c r="F15" t="n">
-        <v>-150.1256452595383</v>
+        <v>-113.9594746194025</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7981348510084897</v>
+        <v>0.8057144216393328</v>
       </c>
       <c r="H15" t="n">
+        <v>0.8057192909856657</v>
+      </c>
+      <c r="I15" t="n">
         <v>3</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>RF01</t>
         </is>
@@ -914,27 +961,30 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1250.594862199097</v>
+        <v>-2087.283717040014</v>
       </c>
       <c r="C16" t="n">
-        <v>-76765.04326045451</v>
+        <v>-72413.59191853974</v>
       </c>
       <c r="D16" t="n">
-        <v>-204.587461981186</v>
+        <v>-176.8127525070857</v>
       </c>
       <c r="E16" t="n">
-        <v>-277.0650523982671</v>
+        <v>-269.0977367399059</v>
       </c>
       <c r="F16" t="n">
-        <v>-143.0491974519209</v>
+        <v>-104.5499622925479</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8073478699825484</v>
+        <v>0.7992519043049597</v>
       </c>
       <c r="H16" t="n">
+        <v>0.7992522919009039</v>
+      </c>
+      <c r="I16" t="n">
         <v>4</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>RF01</t>
         </is>
@@ -945,27 +995,30 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-1510.25017479294</v>
+        <v>-2095.925629829646</v>
       </c>
       <c r="C17" t="n">
-        <v>-73942.09260058611</v>
+        <v>-75733.3004204918</v>
       </c>
       <c r="D17" t="n">
-        <v>-201.5606407234256</v>
+        <v>-179.4082079385972</v>
       </c>
       <c r="E17" t="n">
-        <v>-271.9229534272275</v>
+        <v>-275.1968394086164</v>
       </c>
       <c r="F17" t="n">
-        <v>-142.8082095253637</v>
+        <v>-111.4391075402518</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8033820798639399</v>
+        <v>0.8002195222502084</v>
       </c>
       <c r="H17" t="n">
+        <v>0.8002461319933296</v>
+      </c>
+      <c r="I17" t="n">
         <v>5</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>RF01</t>
         </is>
@@ -976,27 +1029,30 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1966.617684363066</v>
+        <v>-1992.907110304279</v>
       </c>
       <c r="C18" t="n">
-        <v>-82771.01940928253</v>
+        <v>-75756.42479865358</v>
       </c>
       <c r="D18" t="n">
-        <v>-209.0059469492655</v>
+        <v>-179.2442507520828</v>
       </c>
       <c r="E18" t="n">
-        <v>-287.6995297342047</v>
+        <v>-275.2388504529358</v>
       </c>
       <c r="F18" t="n">
-        <v>-146.6061882122906</v>
+        <v>-107.3645826256184</v>
       </c>
       <c r="G18" t="n">
-        <v>0.78755021643205</v>
+        <v>0.7981530360321143</v>
       </c>
       <c r="H18" t="n">
+        <v>0.7981608058273753</v>
+      </c>
+      <c r="I18" t="n">
         <v>6</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>RF01</t>
         </is>
@@ -1007,27 +1063,30 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-1374.281421987885</v>
+        <v>-2059.777478886532</v>
       </c>
       <c r="C19" t="n">
-        <v>-75366.21551658754</v>
+        <v>-76793.16094984951</v>
       </c>
       <c r="D19" t="n">
-        <v>-203.1609444209057</v>
+        <v>-180.1563849577942</v>
       </c>
       <c r="E19" t="n">
-        <v>-274.5290795463889</v>
+        <v>-277.1157897880406</v>
       </c>
       <c r="F19" t="n">
-        <v>-146.8243748280094</v>
+        <v>-108.5895902688549</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8087103465139157</v>
+        <v>0.7877026842365766</v>
       </c>
       <c r="H19" t="n">
+        <v>0.7877916379913991</v>
+      </c>
+      <c r="I19" t="n">
         <v>7</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>RF01</t>
         </is>
@@ -1038,27 +1097,30 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-1838.558729144908</v>
+        <v>-1984.971793955344</v>
       </c>
       <c r="C20" t="n">
-        <v>-77112.04600272659</v>
+        <v>-77632.35794205022</v>
       </c>
       <c r="D20" t="n">
-        <v>-204.0495991602594</v>
+        <v>-183.0823463814111</v>
       </c>
       <c r="E20" t="n">
-        <v>-277.6905580006757</v>
+        <v>-278.6258386116589</v>
       </c>
       <c r="F20" t="n">
-        <v>-148.6322916702103</v>
+        <v>-110.051076877332</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8079435073715039</v>
+        <v>0.7956373012674531</v>
       </c>
       <c r="H20" t="n">
+        <v>0.795659343659166</v>
+      </c>
+      <c r="I20" t="n">
         <v>8</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>RF01</t>
         </is>
@@ -1069,27 +1131,30 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-1752.175448585013</v>
+        <v>-2070.977308159129</v>
       </c>
       <c r="C21" t="n">
-        <v>-77801.19616120581</v>
+        <v>-74704.19776162892</v>
       </c>
       <c r="D21" t="n">
-        <v>-203.9338007584623</v>
+        <v>-182.520779513453</v>
       </c>
       <c r="E21" t="n">
-        <v>-278.9286578342315</v>
+        <v>-273.3206866697597</v>
       </c>
       <c r="F21" t="n">
-        <v>-146.813728820729</v>
+        <v>-117.5016671648925</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7929253910028353</v>
+        <v>0.8029395590779131</v>
       </c>
       <c r="H21" t="n">
+        <v>0.8029533027307894</v>
+      </c>
+      <c r="I21" t="n">
         <v>9</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>RF01</t>
         </is>
@@ -1100,27 +1165,30 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-1264.026589023344</v>
+        <v>-1715.593038472742</v>
       </c>
       <c r="C22" t="n">
-        <v>-68042.57886169631</v>
+        <v>-61842.44507761649</v>
       </c>
       <c r="D22" t="n">
-        <v>-188.8650658297906</v>
+        <v>-162.0212174940531</v>
       </c>
       <c r="E22" t="n">
-        <v>-260.8497246724564</v>
+        <v>-248.6814128108824</v>
       </c>
       <c r="F22" t="n">
-        <v>-128.758189236141</v>
+        <v>-97.94113698906821</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8269621745812403</v>
+        <v>0.8324260605688337</v>
       </c>
       <c r="H22" t="n">
+        <v>0.832426948677278</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>RF02</t>
         </is>
@@ -1131,27 +1199,30 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-1337.372705682622</v>
+        <v>-2150.604318539427</v>
       </c>
       <c r="C23" t="n">
-        <v>-68375.10329960908</v>
+        <v>-65267.31007281047</v>
       </c>
       <c r="D23" t="n">
-        <v>-188.6426697787446</v>
+        <v>-162.7763642600197</v>
       </c>
       <c r="E23" t="n">
-        <v>-261.4863348238471</v>
+        <v>-255.4746759912036</v>
       </c>
       <c r="F23" t="n">
-        <v>-131.4877672139937</v>
+        <v>-93.38036263378051</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8229097530893135</v>
+        <v>0.8256810186435125</v>
       </c>
       <c r="H23" t="n">
+        <v>0.8256891823006058</v>
+      </c>
+      <c r="I23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>RF02</t>
         </is>
@@ -1162,27 +1233,30 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-1610.539528717587</v>
+        <v>-2236.837291428581</v>
       </c>
       <c r="C24" t="n">
-        <v>-68513.9999816018</v>
+        <v>-68519.06063724792</v>
       </c>
       <c r="D24" t="n">
-        <v>-188.8040008021974</v>
+        <v>-165.3444872885372</v>
       </c>
       <c r="E24" t="n">
-        <v>-261.751790789675</v>
+        <v>-261.7614575090228</v>
       </c>
       <c r="F24" t="n">
-        <v>-130.5154668683358</v>
+        <v>-98.27932174861911</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8277875198225992</v>
+        <v>0.8193308187137102</v>
       </c>
       <c r="H24" t="n">
+        <v>0.8193323345869525</v>
+      </c>
+      <c r="I24" t="n">
         <v>2</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>RF02</t>
         </is>
@@ -1193,27 +1267,30 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-1225.515082706861</v>
+        <v>-2163.085750877772</v>
       </c>
       <c r="C25" t="n">
-        <v>-65452.64201747552</v>
+        <v>-63302.70730806114</v>
       </c>
       <c r="D25" t="n">
-        <v>-184.3081391031841</v>
+        <v>-163.0092877800604</v>
       </c>
       <c r="E25" t="n">
-        <v>-255.8371396366749</v>
+        <v>-251.6002927423995</v>
       </c>
       <c r="F25" t="n">
-        <v>-127.0286200297485</v>
+        <v>-99.54270772454356</v>
       </c>
       <c r="G25" t="n">
-        <v>0.831896664373973</v>
+        <v>0.823611785620505</v>
       </c>
       <c r="H25" t="n">
+        <v>0.8236118834102343</v>
+      </c>
+      <c r="I25" t="n">
         <v>3</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>RF02</t>
         </is>
@@ -1224,27 +1301,30 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-1324.686758075032</v>
+        <v>-2128.644794181105</v>
       </c>
       <c r="C26" t="n">
-        <v>-65859.07777390465</v>
+        <v>-64204.29707501696</v>
       </c>
       <c r="D26" t="n">
-        <v>-183.8661539160333</v>
+        <v>-159.9823468841539</v>
       </c>
       <c r="E26" t="n">
-        <v>-256.6302355021805</v>
+        <v>-253.3856686456773</v>
       </c>
       <c r="F26" t="n">
-        <v>-126.3729201781609</v>
+        <v>-93.29857740059666</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8347178471445752</v>
+        <v>0.8220100670085886</v>
       </c>
       <c r="H26" t="n">
+        <v>0.8220237220915232</v>
+      </c>
+      <c r="I26" t="n">
         <v>4</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>RF02</t>
         </is>
@@ -1255,27 +1335,30 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-1578.306214285714</v>
+        <v>-2183.344420892715</v>
       </c>
       <c r="C27" t="n">
-        <v>-64281.29291349978</v>
+        <v>-68771.57037360799</v>
       </c>
       <c r="D27" t="n">
-        <v>-184.5596939641538</v>
+        <v>-164.6520824470895</v>
       </c>
       <c r="E27" t="n">
-        <v>-253.5375572050417</v>
+        <v>-262.2433419052007</v>
       </c>
       <c r="F27" t="n">
-        <v>-129.8831616444492</v>
+        <v>-96.3085052496732</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8290709165538412</v>
+        <v>0.8185842012884826</v>
       </c>
       <c r="H27" t="n">
+        <v>0.8186388373215897</v>
+      </c>
+      <c r="I27" t="n">
         <v>5</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>RF02</t>
         </is>
@@ -1286,27 +1369,30 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-2003.454336435636</v>
+        <v>-2090.982677856126</v>
       </c>
       <c r="C28" t="n">
-        <v>-71132.16402793919</v>
+        <v>-68898.0066457377</v>
       </c>
       <c r="D28" t="n">
-        <v>-190.0912034194652</v>
+        <v>-164.0481811468635</v>
       </c>
       <c r="E28" t="n">
-        <v>-266.7061379645005</v>
+        <v>-262.4842979032035</v>
       </c>
       <c r="F28" t="n">
-        <v>-131.7404221735875</v>
+        <v>-92.54526423043797</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8174238645324594</v>
+        <v>0.816426745297931</v>
       </c>
       <c r="H28" t="n">
+        <v>0.8164285875038283</v>
+      </c>
+      <c r="I28" t="n">
         <v>6</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>RF02</t>
         </is>
@@ -1317,27 +1403,30 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-1522.821188220552</v>
+        <v>-2163.345187693549</v>
       </c>
       <c r="C29" t="n">
-        <v>-66614.51233624243</v>
+        <v>-68301.08148024928</v>
       </c>
       <c r="D29" t="n">
-        <v>-185.4706792064135</v>
+        <v>-164.4881800232496</v>
       </c>
       <c r="E29" t="n">
-        <v>-258.0978735600943</v>
+        <v>-261.3447559838331</v>
       </c>
       <c r="F29" t="n">
-        <v>-129.8798824252319</v>
+        <v>-96.84631995900119</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8309233534601491</v>
+        <v>0.8111793279161248</v>
       </c>
       <c r="H29" t="n">
+        <v>0.8112759653319737</v>
+      </c>
+      <c r="I29" t="n">
         <v>7</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>RF02</t>
         </is>
@@ -1348,27 +1437,30 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-1544.901603602849</v>
+        <v>-2125.844544868066</v>
       </c>
       <c r="C30" t="n">
-        <v>-65061.91150398997</v>
+        <v>-70167.59268923211</v>
       </c>
       <c r="D30" t="n">
-        <v>-184.3723272477042</v>
+        <v>-167.5075929713307</v>
       </c>
       <c r="E30" t="n">
-        <v>-255.0723652299284</v>
+        <v>-264.8916621738633</v>
       </c>
       <c r="F30" t="n">
-        <v>-128.4071702658522</v>
+        <v>-94.04322353048912</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8379557646969957</v>
+        <v>0.8152878646782618</v>
       </c>
       <c r="H30" t="n">
+        <v>0.8152896485038015</v>
+      </c>
+      <c r="I30" t="n">
         <v>8</v>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>RF02</t>
         </is>
@@ -1379,27 +1471,30 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-1913.334903101791</v>
+        <v>-2010.4527</v>
       </c>
       <c r="C31" t="n">
-        <v>-68551.00911213194</v>
+        <v>-65644.71688674742</v>
       </c>
       <c r="D31" t="n">
-        <v>-186.5259478754275</v>
+        <v>-165.9826227231234</v>
       </c>
       <c r="E31" t="n">
-        <v>-261.8224763310666</v>
+        <v>-256.2122496812895</v>
       </c>
       <c r="F31" t="n">
-        <v>-127.8356666007887</v>
+        <v>-100.1728527980003</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8175455634532522</v>
+        <v>0.8268373499547512</v>
       </c>
       <c r="H31" t="n">
+        <v>0.8268776232466657</v>
+      </c>
+      <c r="I31" t="n">
         <v>9</v>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>RF02</t>
         </is>
@@ -1410,27 +1505,30 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-1303.417524505614</v>
+        <v>-1857.128407351467</v>
       </c>
       <c r="C32" t="n">
-        <v>-70394.17351694439</v>
+        <v>-63471.92246156347</v>
       </c>
       <c r="D32" t="n">
-        <v>-189.5384021976724</v>
+        <v>-162.7433572655245</v>
       </c>
       <c r="E32" t="n">
-        <v>-265.3190033091192</v>
+        <v>-251.936346051068</v>
       </c>
       <c r="F32" t="n">
-        <v>-128.0008450277438</v>
+        <v>-96.68942535670013</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8209818776522013</v>
+        <v>0.8280106797717245</v>
       </c>
       <c r="H32" t="n">
+        <v>0.8280111646578803</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>RF03</t>
         </is>
@@ -1441,27 +1539,30 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-1219.659517956575</v>
+        <v>-2169.867834565651</v>
       </c>
       <c r="C33" t="n">
-        <v>-70140.68593585516</v>
+        <v>-65482.98338193608</v>
       </c>
       <c r="D33" t="n">
-        <v>-190.4881521981032</v>
+        <v>-163.8003716544321</v>
       </c>
       <c r="E33" t="n">
-        <v>-264.8408690815206</v>
+        <v>-255.8964309675617</v>
       </c>
       <c r="F33" t="n">
-        <v>-131.126866620173</v>
+        <v>-93.67105742925526</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8183369268717943</v>
+        <v>0.8251049882921679</v>
       </c>
       <c r="H33" t="n">
+        <v>0.8251296285062157</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>RF03</t>
         </is>
@@ -1472,27 +1573,30 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-1562.592204478363</v>
+        <v>-2250.8737</v>
       </c>
       <c r="C34" t="n">
-        <v>-69599.63921253153</v>
+        <v>-70360.31357523976</v>
       </c>
       <c r="D34" t="n">
-        <v>-189.4301911412406</v>
+        <v>-166.8568363651214</v>
       </c>
       <c r="E34" t="n">
-        <v>-263.8174353838872</v>
+        <v>-265.2551857650285</v>
       </c>
       <c r="F34" t="n">
-        <v>-129.9434763174895</v>
+        <v>-98.28725140525366</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8250587253486741</v>
+        <v>0.8144758534273483</v>
       </c>
       <c r="H34" t="n">
+        <v>0.8144802391736411</v>
+      </c>
+      <c r="I34" t="n">
         <v>2</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>RF03</t>
         </is>
@@ -1503,27 +1607,30 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-1252.651723600383</v>
+        <v>-2194.894501133705</v>
       </c>
       <c r="C35" t="n">
-        <v>-67997.85879123928</v>
+        <v>-63978.65997613067</v>
       </c>
       <c r="D35" t="n">
-        <v>-186.0888806250722</v>
+        <v>-163.1231501063858</v>
       </c>
       <c r="E35" t="n">
-        <v>-260.7639905954027</v>
+        <v>-252.9400323715696</v>
       </c>
       <c r="F35" t="n">
-        <v>-128.2804468527084</v>
+        <v>-98.0581340485748</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8253597329931623</v>
+        <v>0.8217282945472779</v>
       </c>
       <c r="H35" t="n">
+        <v>0.8217295081693132</v>
+      </c>
+      <c r="I35" t="n">
         <v>3</v>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>RF03</t>
         </is>
@@ -1534,27 +1641,30 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-1154.734685789494</v>
+        <v>-2170.738295642701</v>
       </c>
       <c r="C36" t="n">
-        <v>-66234.65621672649</v>
+        <v>-65342.32929546279</v>
       </c>
       <c r="D36" t="n">
-        <v>-184.7116973246877</v>
+        <v>-159.9374299948542</v>
       </c>
       <c r="E36" t="n">
-        <v>-257.3609453991155</v>
+        <v>-255.6214570325871</v>
       </c>
       <c r="F36" t="n">
-        <v>-129.3379648060227</v>
+        <v>-91.39150800360608</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8337752828741068</v>
+        <v>0.8188551647997451</v>
       </c>
       <c r="H36" t="n">
+        <v>0.8188688108037536</v>
+      </c>
+      <c r="I36" t="n">
         <v>4</v>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>RF03</t>
         </is>
@@ -1565,27 +1675,30 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-1614.890928494623</v>
+        <v>-2204.95754870443</v>
       </c>
       <c r="C37" t="n">
-        <v>-64542.19423434298</v>
+        <v>-70055.69931975885</v>
       </c>
       <c r="D37" t="n">
-        <v>-183.4473589599414</v>
+        <v>-165.0648099908198</v>
       </c>
       <c r="E37" t="n">
-        <v>-254.0515582206552</v>
+        <v>-264.680371995656</v>
       </c>
       <c r="F37" t="n">
-        <v>-130.7115500006966</v>
+        <v>-95.6046665367072</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8283771591382642</v>
+        <v>0.8151967364225656</v>
       </c>
       <c r="H37" t="n">
+        <v>0.8153090623573389</v>
+      </c>
+      <c r="I37" t="n">
         <v>5</v>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>RF03</t>
         </is>
@@ -1596,27 +1709,30 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-1977.878594669618</v>
+        <v>-2131.839547454535</v>
       </c>
       <c r="C38" t="n">
-        <v>-71921.43028881903</v>
+        <v>-70329.28750406665</v>
       </c>
       <c r="D38" t="n">
-        <v>-190.7012813507862</v>
+        <v>-165.2048242600857</v>
       </c>
       <c r="E38" t="n">
-        <v>-268.1817113242792</v>
+        <v>-265.1966958769785</v>
       </c>
       <c r="F38" t="n">
-        <v>-132.3081234328245</v>
+        <v>-92.83794334759482</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8153980413941424</v>
+        <v>0.8126132113751399</v>
       </c>
       <c r="H38" t="n">
+        <v>0.8126158124939734</v>
+      </c>
+      <c r="I38" t="n">
         <v>6</v>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>RF03</t>
         </is>
@@ -1627,27 +1743,30 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-1777.255538461538</v>
+        <v>-2248.779948051948</v>
       </c>
       <c r="C39" t="n">
-        <v>-68604.68854334086</v>
+        <v>-67593.44069096216</v>
       </c>
       <c r="D39" t="n">
-        <v>-185.7910830891847</v>
+        <v>-163.8455964353284</v>
       </c>
       <c r="E39" t="n">
-        <v>-261.9249673920775</v>
+        <v>-259.9873856381539</v>
       </c>
       <c r="F39" t="n">
-        <v>-126.0969224358974</v>
+        <v>-94.02238158940736</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8258720169372435</v>
+        <v>0.8131356250424857</v>
       </c>
       <c r="H39" t="n">
+        <v>0.8132283115159123</v>
+      </c>
+      <c r="I39" t="n">
         <v>7</v>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>RF03</t>
         </is>
@@ -1658,27 +1777,30 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-1595.075849582289</v>
+        <v>-2127.729141923581</v>
       </c>
       <c r="C40" t="n">
-        <v>-67568.02456361504</v>
+        <v>-71691.61557889986</v>
       </c>
       <c r="D40" t="n">
-        <v>-186.4868803126538</v>
+        <v>-168.074283966389</v>
       </c>
       <c r="E40" t="n">
-        <v>-259.9385015029806</v>
+        <v>-267.752900225002</v>
       </c>
       <c r="F40" t="n">
-        <v>-129.8808272229962</v>
+        <v>-94.18506497286239</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8317139995083891</v>
+        <v>0.8112759624390542</v>
       </c>
       <c r="H40" t="n">
+        <v>0.8112765210444457</v>
+      </c>
+      <c r="I40" t="n">
         <v>8</v>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>RF03</t>
         </is>
@@ -1689,27 +1811,30 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-1817.726331654664</v>
+        <v>-2197.064</v>
       </c>
       <c r="C41" t="n">
-        <v>-69660.30690832327</v>
+        <v>-67109.94244467525</v>
       </c>
       <c r="D41" t="n">
-        <v>-188.0826849552841</v>
+        <v>-165.8567144786486</v>
       </c>
       <c r="E41" t="n">
-        <v>-263.9323907903751</v>
+        <v>-259.055867419897</v>
       </c>
       <c r="F41" t="n">
-        <v>-131.4477386032216</v>
+        <v>-99.88810649818049</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8145930714770135</v>
+        <v>0.8229722660217587</v>
       </c>
       <c r="H41" t="n">
+        <v>0.8229726297133775</v>
+      </c>
+      <c r="I41" t="n">
         <v>9</v>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>RF03</t>
         </is>
@@ -1720,29 +1845,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-1307.257</v>
+        <v>-1767.990644964807</v>
       </c>
       <c r="C42" t="n">
-        <v>-73851.96071898281</v>
+        <v>-61322.10635551649</v>
       </c>
       <c r="D42" t="n">
-        <v>-196.0256597799511</v>
+        <v>-161.4100320143477</v>
       </c>
       <c r="E42" t="n">
-        <v>-271.7571723413806</v>
+        <v>-247.6330074031256</v>
       </c>
       <c r="F42" t="n">
-        <v>-133.6674999999999</v>
+        <v>-96.48423827505815</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8121884428910393</v>
+        <v>0.8338360179110998</v>
       </c>
       <c r="H42" t="n">
+        <v>0.8338388103993961</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>RF10</t>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>RF202</t>
         </is>
       </c>
     </row>
@@ -1751,29 +1879,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-1309.372</v>
+        <v>-2143.29112909491</v>
       </c>
       <c r="C43" t="n">
-        <v>-75840.5119540195</v>
+        <v>-64233.11539397755</v>
       </c>
       <c r="D43" t="n">
-        <v>-197.7603011738812</v>
+        <v>-162.0388140128883</v>
       </c>
       <c r="E43" t="n">
-        <v>-275.3915611525152</v>
+        <v>-253.4425287791643</v>
       </c>
       <c r="F43" t="n">
-        <v>-138.102</v>
+        <v>-93.78488011004606</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8035744834063459</v>
+        <v>0.8284431941144694</v>
       </c>
       <c r="H43" t="n">
+        <v>0.8284691311815016</v>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>RF10</t>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>RF202</t>
         </is>
       </c>
     </row>
@@ -1782,29 +1913,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-1267.943</v>
+        <v>-2238.971357995396</v>
       </c>
       <c r="C44" t="n">
-        <v>-76693.37630720218</v>
+        <v>-68696.02181779921</v>
       </c>
       <c r="D44" t="n">
-        <v>-198.5872796527268</v>
+        <v>-165.8969992749308</v>
       </c>
       <c r="E44" t="n">
-        <v>-276.9356898400821</v>
+        <v>-262.0992594758696</v>
       </c>
       <c r="F44" t="n">
-        <v>-138.773</v>
+        <v>-98.58772268581399</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8072283540504328</v>
+        <v>0.8188642123225496</v>
       </c>
       <c r="H44" t="n">
+        <v>0.8188646643830664</v>
+      </c>
+      <c r="I44" t="n">
         <v>2</v>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>RF10</t>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>RF202</t>
         </is>
       </c>
     </row>
@@ -1813,29 +1947,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-1279.162</v>
+        <v>-2191.840522012978</v>
       </c>
       <c r="C45" t="n">
-        <v>-73738.82649971583</v>
+        <v>-61990.6948749982</v>
       </c>
       <c r="D45" t="n">
-        <v>-193.6074096356077</v>
+        <v>-162.3219724486437</v>
       </c>
       <c r="E45" t="n">
-        <v>-271.5489394192432</v>
+        <v>-248.9793061179949</v>
       </c>
       <c r="F45" t="n">
-        <v>-135.392</v>
+        <v>-100.5270932069078</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8106150902748661</v>
+        <v>0.8272676092045652</v>
       </c>
       <c r="H45" t="n">
+        <v>0.8272676981529494</v>
+      </c>
+      <c r="I45" t="n">
         <v>3</v>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>RF10</t>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>RF202</t>
         </is>
       </c>
     </row>
@@ -1844,29 +1981,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-1258.903</v>
+        <v>-2032.076622528088</v>
       </c>
       <c r="C46" t="n">
-        <v>-75100.96947025745</v>
+        <v>-64229.60729254397</v>
       </c>
       <c r="D46" t="n">
-        <v>-196.9322776962582</v>
+        <v>-160.0309656519481</v>
       </c>
       <c r="E46" t="n">
-        <v>-274.0455609387925</v>
+        <v>-253.4356077834051</v>
       </c>
       <c r="F46" t="n">
-        <v>-137.141</v>
+        <v>-90.99957713560016</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8115240854391067</v>
+        <v>0.8219399009273937</v>
       </c>
       <c r="H46" t="n">
+        <v>0.8219468205238499</v>
+      </c>
+      <c r="I46" t="n">
         <v>4</v>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>RF10</t>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>RF202</t>
         </is>
       </c>
     </row>
@@ -1875,29 +2015,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-1724.439</v>
+        <v>-2137.938431435925</v>
       </c>
       <c r="C47" t="n">
-        <v>-72930.77758205931</v>
+        <v>-67646.29284878599</v>
       </c>
       <c r="D47" t="n">
-        <v>-194.7684186842749</v>
+        <v>-163.5377407880259</v>
       </c>
       <c r="E47" t="n">
-        <v>-270.0569895078802</v>
+        <v>-260.0890094732686</v>
       </c>
       <c r="F47" t="n">
-        <v>-137.126</v>
+        <v>-96.4533068347458</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8060712471372979</v>
+        <v>0.8215526244294503</v>
       </c>
       <c r="H47" t="n">
+        <v>0.8216521817893292</v>
+      </c>
+      <c r="I47" t="n">
         <v>5</v>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>RF10</t>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>RF202</t>
         </is>
       </c>
     </row>
@@ -1906,29 +2049,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-1839.245</v>
+        <v>-2119.688743229382</v>
       </c>
       <c r="C48" t="n">
-        <v>-79366.44022147823</v>
+        <v>-66822.52396073706</v>
       </c>
       <c r="D48" t="n">
-        <v>-200.0835573489851</v>
+        <v>-163.1485971424611</v>
       </c>
       <c r="E48" t="n">
-        <v>-281.7205001796607</v>
+        <v>-258.5005299041707</v>
       </c>
       <c r="F48" t="n">
-        <v>-138.11</v>
+        <v>-93.05501152262107</v>
       </c>
       <c r="G48" t="n">
-        <v>0.7962888077500139</v>
+        <v>0.8219567037120026</v>
       </c>
       <c r="H48" t="n">
+        <v>0.8219569577767899</v>
+      </c>
+      <c r="I48" t="n">
         <v>6</v>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>RF10</t>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>RF202</t>
         </is>
       </c>
     </row>
@@ -1937,29 +2083,32 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-1855.698</v>
+        <v>-2143.768478843056</v>
       </c>
       <c r="C49" t="n">
-        <v>-75771.69677242682</v>
+        <v>-65948.43929269258</v>
       </c>
       <c r="D49" t="n">
-        <v>-195.8196486916117</v>
+        <v>-162.5924555509685</v>
       </c>
       <c r="E49" t="n">
-        <v>-275.2665921836989</v>
+        <v>-256.8042820762391</v>
       </c>
       <c r="F49" t="n">
-        <v>-134.5200000000002</v>
+        <v>-95.00616431714506</v>
       </c>
       <c r="G49" t="n">
-        <v>0.8076811802171482</v>
+        <v>0.8176832875811821</v>
       </c>
       <c r="H49" t="n">
+        <v>0.8177937374474076</v>
+      </c>
+      <c r="I49" t="n">
         <v>7</v>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>RF10</t>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>RF202</t>
         </is>
       </c>
     </row>
@@ -1968,29 +2117,32 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-1707.496000000001</v>
+        <v>-2168.656322257871</v>
       </c>
       <c r="C50" t="n">
-        <v>-74301.31782825415</v>
+        <v>-70157.796224474</v>
       </c>
       <c r="D50" t="n">
-        <v>-194.6980651748594</v>
+        <v>-166.7633553542609</v>
       </c>
       <c r="E50" t="n">
-        <v>-272.5826807195464</v>
+        <v>-264.8731700729124</v>
       </c>
       <c r="F50" t="n">
-        <v>-133.353</v>
+        <v>-95.13923073932344</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8149439518273829</v>
+        <v>0.8153136533059562</v>
       </c>
       <c r="H50" t="n">
+        <v>0.8153151397490581</v>
+      </c>
+      <c r="I50" t="n">
         <v>8</v>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>RF10</t>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>RF202</t>
         </is>
       </c>
     </row>
@@ -1999,29 +2151,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-2067.375</v>
+        <v>-2146.295395783132</v>
       </c>
       <c r="C51" t="n">
-        <v>-76916.58210109011</v>
+        <v>-66356.4343802504</v>
       </c>
       <c r="D51" t="n">
-        <v>-197.9548547322084</v>
+        <v>-165.7766627417703</v>
       </c>
       <c r="E51" t="n">
-        <v>-277.3383891586055</v>
+        <v>-257.5974269674493</v>
       </c>
       <c r="F51" t="n">
-        <v>-135.676</v>
+        <v>-99.34596255597469</v>
       </c>
       <c r="G51" t="n">
-        <v>0.7952798677930417</v>
+        <v>0.8249599271688298</v>
       </c>
       <c r="H51" t="n">
+        <v>0.8249883265118176</v>
+      </c>
+      <c r="I51" t="n">
         <v>9</v>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>RF10</t>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>RF202</t>
         </is>
       </c>
     </row>
@@ -2030,29 +2185,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-1240.257</v>
+        <v>-1744.124693887256</v>
       </c>
       <c r="C52" t="n">
-        <v>-80232.58571281223</v>
+        <v>-61224.25871201479</v>
       </c>
       <c r="D52" t="n">
-        <v>-201.3537408312959</v>
+        <v>-161.0817184387314</v>
       </c>
       <c r="E52" t="n">
-        <v>-283.2535714034551</v>
+        <v>-247.4353626950173</v>
       </c>
       <c r="F52" t="n">
-        <v>-130.6925</v>
+        <v>-97.95092854884342</v>
       </c>
       <c r="G52" t="n">
-        <v>0.795961993332315</v>
+        <v>0.8341011548258039</v>
       </c>
       <c r="H52" t="n">
+        <v>0.8341023149343644</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>RF11</t>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>RF502</t>
         </is>
       </c>
     </row>
@@ -2061,29 +2219,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-1505.569</v>
+        <v>-2131.347209348794</v>
       </c>
       <c r="C53" t="n">
-        <v>-79722.56232627435</v>
+        <v>-64040.32283823506</v>
       </c>
       <c r="D53" t="n">
-        <v>-201.6376980924432</v>
+        <v>-161.8053135626419</v>
       </c>
       <c r="E53" t="n">
-        <v>-282.3518413722041</v>
+        <v>-253.0618952711669</v>
       </c>
       <c r="F53" t="n">
-        <v>-133.9849999999999</v>
+        <v>-92.9604666068532</v>
       </c>
       <c r="G53" t="n">
-        <v>0.7935200450835262</v>
+        <v>0.8289581134805756</v>
       </c>
       <c r="H53" t="n">
+        <v>0.8289719904479942</v>
+      </c>
+      <c r="I53" t="n">
         <v>1</v>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>RF11</t>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>RF502</t>
         </is>
       </c>
     </row>
@@ -2092,29 +2253,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-1793.186</v>
+        <v>-2271.709736804557</v>
       </c>
       <c r="C54" t="n">
-        <v>-81927.90492010683</v>
+        <v>-68389.6289603683</v>
       </c>
       <c r="D54" t="n">
-        <v>-201.4869164832477</v>
+        <v>-165.4573073762454</v>
       </c>
       <c r="E54" t="n">
-        <v>-286.2305101139759</v>
+        <v>-261.5141085302441</v>
       </c>
       <c r="F54" t="n">
-        <v>-131.5205</v>
+        <v>-99.07990188318999</v>
       </c>
       <c r="G54" t="n">
-        <v>0.7940711722302216</v>
+        <v>0.8196721006121611</v>
       </c>
       <c r="H54" t="n">
+        <v>0.819672150227579</v>
+      </c>
+      <c r="I54" t="n">
         <v>2</v>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>RF11</t>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>RF502</t>
         </is>
       </c>
     </row>
@@ -2123,29 +2287,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-1598.1985</v>
+        <v>-2148.753067786682</v>
       </c>
       <c r="C55" t="n">
-        <v>-78923.98072943324</v>
+        <v>-62118.80662831468</v>
       </c>
       <c r="D55" t="n">
-        <v>-199.4987676693568</v>
+        <v>-162.168295411526</v>
       </c>
       <c r="E55" t="n">
-        <v>-280.9341216894688</v>
+        <v>-249.2364472309672</v>
       </c>
       <c r="F55" t="n">
-        <v>-132.9635000000002</v>
+        <v>-99.43909873536654</v>
       </c>
       <c r="G55" t="n">
-        <v>0.7972979544819645</v>
+        <v>0.8269106354767506</v>
       </c>
       <c r="H55" t="n">
+        <v>0.8269120216231974</v>
+      </c>
+      <c r="I55" t="n">
         <v>3</v>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>RF11</t>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>RF502</t>
         </is>
       </c>
     </row>
@@ -2154,29 +2321,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-1330.2265</v>
+        <v>-2104.504590267711</v>
       </c>
       <c r="C56" t="n">
-        <v>-77752.87918627451</v>
+        <v>-63433.59562972275</v>
       </c>
       <c r="D56" t="n">
-        <v>-197.8528916605527</v>
+        <v>-159.468431199294</v>
       </c>
       <c r="E56" t="n">
-        <v>-278.8420326749081</v>
+        <v>-251.8602700501267</v>
       </c>
       <c r="F56" t="n">
-        <v>-131.2395</v>
+        <v>-93.42602610223379</v>
       </c>
       <c r="G56" t="n">
-        <v>0.8048687637756868</v>
+        <v>0.824146638933736</v>
       </c>
       <c r="H56" t="n">
+        <v>0.8241644057197106</v>
+      </c>
+      <c r="I56" t="n">
         <v>4</v>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>RF11</t>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>RF502</t>
         </is>
       </c>
     </row>
@@ -2185,29 +2355,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-1582.778499999999</v>
+        <v>-2105.960507378522</v>
       </c>
       <c r="C57" t="n">
-        <v>-74732.72854110168</v>
+        <v>-67273.76984313925</v>
       </c>
       <c r="D57" t="n">
-        <v>-195.5588414037662</v>
+        <v>-163.0357953098795</v>
       </c>
       <c r="E57" t="n">
-        <v>-273.3728745525087</v>
+        <v>-259.371875582414</v>
       </c>
       <c r="F57" t="n">
-        <v>-129.508</v>
+        <v>-96.56045698758692</v>
       </c>
       <c r="G57" t="n">
-        <v>0.801279715855273</v>
+        <v>0.8225353205964954</v>
       </c>
       <c r="H57" t="n">
+        <v>0.8225938773168963</v>
+      </c>
+      <c r="I57" t="n">
         <v>5</v>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>RF11</t>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>RF502</t>
         </is>
       </c>
     </row>
@@ -2216,29 +2389,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-2181.83</v>
+        <v>-2041.930992039052</v>
       </c>
       <c r="C58" t="n">
-        <v>-86650.06378078839</v>
+        <v>-67419.64013395975</v>
       </c>
       <c r="D58" t="n">
-        <v>-205.8829521887992</v>
+        <v>-163.6709068838171</v>
       </c>
       <c r="E58" t="n">
-        <v>-294.363828927381</v>
+        <v>-259.6529224444812</v>
       </c>
       <c r="F58" t="n">
-        <v>-135.46</v>
+        <v>-93.37483737193853</v>
       </c>
       <c r="G58" t="n">
-        <v>0.7775938072557668</v>
+        <v>0.8203657351965077</v>
       </c>
       <c r="H58" t="n">
+        <v>0.82036573648833</v>
+      </c>
+      <c r="I58" t="n">
         <v>6</v>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>RF11</t>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>RF502</t>
         </is>
       </c>
     </row>
@@ -2247,29 +2423,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-1481.0675</v>
+        <v>-1978.29452554579</v>
       </c>
       <c r="C59" t="n">
-        <v>-77707.84126071871</v>
+        <v>-65883.72587684631</v>
       </c>
       <c r="D59" t="n">
-        <v>-197.1932857666911</v>
+        <v>-162.8062420320813</v>
       </c>
       <c r="E59" t="n">
-        <v>-278.7612621235575</v>
+        <v>-256.6782536111041</v>
       </c>
       <c r="F59" t="n">
-        <v>-132.096</v>
+        <v>-95.56476809206599</v>
       </c>
       <c r="G59" t="n">
-        <v>0.802766983508109</v>
+        <v>0.81786219002911</v>
       </c>
       <c r="H59" t="n">
+        <v>0.8179298072074598</v>
+      </c>
+      <c r="I59" t="n">
         <v>7</v>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>RF11</t>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>RF502</t>
         </is>
       </c>
     </row>
@@ -2278,29 +2457,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-2073.742</v>
+        <v>-2176.188298808376</v>
       </c>
       <c r="C60" t="n">
-        <v>-80414.47581671736</v>
+        <v>-69739.79797621362</v>
       </c>
       <c r="D60" t="n">
-        <v>-199.3834417950599</v>
+        <v>-166.5812955871798</v>
       </c>
       <c r="E60" t="n">
-        <v>-283.5744625609248</v>
+        <v>-264.0829376847615</v>
       </c>
       <c r="F60" t="n">
-        <v>-132.1335</v>
+        <v>-92.7327708837535</v>
       </c>
       <c r="G60" t="n">
-        <v>0.7997184229637524</v>
+        <v>0.8164140095535886</v>
       </c>
       <c r="H60" t="n">
+        <v>0.8164158058340856</v>
+      </c>
+      <c r="I60" t="n">
         <v>8</v>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>RF11</t>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>RF502</t>
         </is>
       </c>
     </row>
@@ -2309,29 +2491,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-1752.161</v>
+        <v>-2085.167997398519</v>
       </c>
       <c r="C61" t="n">
-        <v>-78866.41496175813</v>
+        <v>-65456.72069560402</v>
       </c>
       <c r="D61" t="n">
-        <v>-197.3290741012472</v>
+        <v>-164.8310351360463</v>
       </c>
       <c r="E61" t="n">
-        <v>-280.8316487893737</v>
+        <v>-255.8451107518063</v>
       </c>
       <c r="F61" t="n">
-        <v>-129.6135</v>
+        <v>-99.90666559887541</v>
       </c>
       <c r="G61" t="n">
-        <v>0.790090219083836</v>
+        <v>0.8273332606723336</v>
       </c>
       <c r="H61" t="n">
+        <v>0.8273537421075881</v>
+      </c>
+      <c r="I61" t="n">
         <v>9</v>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>RF11</t>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>RF502</t>
         </is>
       </c>
     </row>
@@ -2340,29 +2525,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-1357.8695</v>
+        <v>-2137.187</v>
       </c>
       <c r="C62" t="n">
-        <v>-69181.98258006619</v>
+        <v>-69205.35014806347</v>
       </c>
       <c r="D62" t="n">
-        <v>-183.6125495110024</v>
+        <v>-166.172932238395</v>
       </c>
       <c r="E62" t="n">
-        <v>-263.0246805531112</v>
+        <v>-263.0690976683949</v>
       </c>
       <c r="F62" t="n">
-        <v>-120.7944999999999</v>
+        <v>-99.21449999999999</v>
       </c>
       <c r="G62" t="n">
-        <v>0.8240645780321513</v>
+        <v>0.8124748602764784</v>
       </c>
       <c r="H62" t="n">
+        <v>0.8125123342947034</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>RF12</t>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>RF10</t>
         </is>
       </c>
     </row>
@@ -2371,29 +2559,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-1304.1485</v>
+        <v>-2079.333</v>
       </c>
       <c r="C63" t="n">
-        <v>-69850.28312624693</v>
+        <v>-73874.76200992167</v>
       </c>
       <c r="D63" t="n">
-        <v>-185.3090253118122</v>
+        <v>-169.5442703579859</v>
       </c>
       <c r="E63" t="n">
-        <v>-264.2920413600208</v>
+        <v>-271.7991206937978</v>
       </c>
       <c r="F63" t="n">
-        <v>-122.9019999999999</v>
+        <v>-100.645</v>
       </c>
       <c r="G63" t="n">
-        <v>0.819089064752036</v>
+        <v>0.8026918338268211</v>
       </c>
       <c r="H63" t="n">
+        <v>0.8027859543201996</v>
+      </c>
+      <c r="I63" t="n">
         <v>1</v>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>RF12</t>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>RF10</t>
         </is>
       </c>
     </row>
@@ -2402,29 +2593,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-1701.3275</v>
+        <v>-2452.065</v>
       </c>
       <c r="C64" t="n">
-        <v>-67924.42969641642</v>
+        <v>-79298.25855931353</v>
       </c>
       <c r="D64" t="n">
-        <v>-182.7725254340915</v>
+        <v>-173.5686311959088</v>
       </c>
       <c r="E64" t="n">
-        <v>-260.623156485406</v>
+        <v>-281.5994647709998</v>
       </c>
       <c r="F64" t="n">
-        <v>-125.5275</v>
+        <v>-102.2719999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>0.8292694266019134</v>
+        <v>0.7909085250425707</v>
       </c>
       <c r="H64" t="n">
+        <v>0.7909108321346242</v>
+      </c>
+      <c r="I64" t="n">
         <v>2</v>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>RF12</t>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>RF10</t>
         </is>
       </c>
     </row>
@@ -2433,29 +2627,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-1319.4115</v>
+        <v>-2315.272</v>
       </c>
       <c r="C65" t="n">
-        <v>-67888.28721635637</v>
+        <v>-73566.86852842673</v>
       </c>
       <c r="D65" t="n">
-        <v>-181.6061497921252</v>
+        <v>-171.2009958693941</v>
       </c>
       <c r="E65" t="n">
-        <v>-260.5538086775098</v>
+        <v>-271.2321303393584</v>
       </c>
       <c r="F65" t="n">
-        <v>-120.21</v>
+        <v>-100.4135</v>
       </c>
       <c r="G65" t="n">
-        <v>0.8256411478705433</v>
+        <v>0.795011475353317</v>
       </c>
       <c r="H65" t="n">
+        <v>0.7950262889604269</v>
+      </c>
+      <c r="I65" t="n">
         <v>3</v>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>RF12</t>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>RF10</t>
         </is>
       </c>
     </row>
@@ -2464,29 +2661,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-1348.856</v>
+        <v>-2269.936</v>
       </c>
       <c r="C66" t="n">
-        <v>-67750.42152907942</v>
+        <v>-71502.49629835182</v>
       </c>
       <c r="D66" t="n">
-        <v>-181.4783742968941</v>
+        <v>-164.504819102892</v>
       </c>
       <c r="E66" t="n">
-        <v>-260.2891114301162</v>
+        <v>-267.3995069149377</v>
       </c>
       <c r="F66" t="n">
-        <v>-119.4309999999999</v>
+        <v>-94.15000000000001</v>
       </c>
       <c r="G66" t="n">
-        <v>0.8299712673531283</v>
+        <v>0.8017776830421141</v>
       </c>
       <c r="H66" t="n">
+        <v>0.801779130621274</v>
+      </c>
+      <c r="I66" t="n">
         <v>4</v>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>RF12</t>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>RF10</t>
         </is>
       </c>
     </row>
@@ -2495,29 +2695,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-1536.6255</v>
+        <v>-2267.069</v>
       </c>
       <c r="C67" t="n">
-        <v>-66211.2884344964</v>
+        <v>-75444.29576028758</v>
       </c>
       <c r="D67" t="n">
-        <v>-181.1400228662265</v>
+        <v>-172.1304891796183</v>
       </c>
       <c r="E67" t="n">
-        <v>-257.3155425435789</v>
+        <v>-274.6712503344454</v>
       </c>
       <c r="F67" t="n">
-        <v>-121.728</v>
+        <v>-101.9319999999999</v>
       </c>
       <c r="G67" t="n">
-        <v>0.8239389045717073</v>
+        <v>0.8009819013987064</v>
       </c>
       <c r="H67" t="n">
+        <v>0.8010012192793753</v>
+      </c>
+      <c r="I67" t="n">
         <v>5</v>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>RF12</t>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>RF10</t>
         </is>
       </c>
     </row>
@@ -2526,29 +2729,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-1982.3265</v>
+        <v>-2027.526</v>
       </c>
       <c r="C68" t="n">
-        <v>-73855.7729827923</v>
+        <v>-76447.6452006289</v>
       </c>
       <c r="D68" t="n">
-        <v>-187.9387871117633</v>
+        <v>-171.2539322250639</v>
       </c>
       <c r="E68" t="n">
-        <v>-271.7641863505791</v>
+        <v>-276.4916729318062</v>
       </c>
       <c r="F68" t="n">
-        <v>-123.656</v>
+        <v>-96.699</v>
       </c>
       <c r="G68" t="n">
-        <v>0.8104331310956621</v>
+        <v>0.7963113342894278</v>
       </c>
       <c r="H68" t="n">
+        <v>0.7963113523907693</v>
+      </c>
+      <c r="I68" t="n">
         <v>6</v>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>RF12</t>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>RF10</t>
         </is>
       </c>
     </row>
@@ -2557,29 +2763,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-1393.0005</v>
+        <v>-2135.136</v>
       </c>
       <c r="C69" t="n">
-        <v>-69874.68186365071</v>
+        <v>-76137.50840724607</v>
       </c>
       <c r="D69" t="n">
-        <v>-182.8167276840303</v>
+        <v>-170.0666477473933</v>
       </c>
       <c r="E69" t="n">
-        <v>-264.3381959983284</v>
+        <v>-275.9302600427254</v>
       </c>
       <c r="F69" t="n">
-        <v>-120.771</v>
+        <v>-93.58</v>
       </c>
       <c r="G69" t="n">
-        <v>0.8226486020356655</v>
+        <v>0.7895152580796962</v>
       </c>
       <c r="H69" t="n">
+        <v>0.7895660538621736</v>
+      </c>
+      <c r="I69" t="n">
         <v>7</v>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>RF12</t>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>RF10</t>
         </is>
       </c>
     </row>
@@ -2588,29 +2797,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-1900.1785</v>
+        <v>-2348.373000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>-66255.41961654402</v>
+        <v>-81922.97779850861</v>
       </c>
       <c r="D70" t="n">
-        <v>-180.0908410369283</v>
+        <v>-174.8642542789691</v>
       </c>
       <c r="E70" t="n">
-        <v>-257.401281303229</v>
+        <v>-286.2219030726136</v>
       </c>
       <c r="F70" t="n">
-        <v>-121.6220000000001</v>
+        <v>-97.59100000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>0.8349831943412217</v>
+        <v>0.7843424922941662</v>
       </c>
       <c r="H70" t="n">
+        <v>0.784343315102098</v>
+      </c>
+      <c r="I70" t="n">
         <v>8</v>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>RF12</t>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>RF10</t>
         </is>
       </c>
     </row>
@@ -2619,29 +2831,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-1845.707</v>
+        <v>-1887.395</v>
       </c>
       <c r="C71" t="n">
-        <v>-69969.86477443729</v>
+        <v>-71731.26020053645</v>
       </c>
       <c r="D71" t="n">
-        <v>-183.5812345316704</v>
+        <v>-170.7515924650797</v>
       </c>
       <c r="E71" t="n">
-        <v>-264.5181747525816</v>
+        <v>-267.8269220980902</v>
       </c>
       <c r="F71" t="n">
-        <v>-122.968</v>
+        <v>-103.663</v>
       </c>
       <c r="G71" t="n">
-        <v>0.8137691564570602</v>
+        <v>0.8107818009354869</v>
       </c>
       <c r="H71" t="n">
+        <v>0.810818185612765</v>
+      </c>
+      <c r="I71" t="n">
         <v>9</v>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>RF12</t>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>RF10</t>
         </is>
       </c>
     </row>
@@ -2650,29 +2865,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-1354.282</v>
+        <v>-1996.3395</v>
       </c>
       <c r="C72" t="n">
-        <v>-69796.86032279694</v>
+        <v>-71733.85006740608</v>
       </c>
       <c r="D72" t="n">
-        <v>-184.6721601466992</v>
+        <v>-168.8785599921322</v>
       </c>
       <c r="E72" t="n">
-        <v>-264.1909542789021</v>
+        <v>-267.8317570181065</v>
       </c>
       <c r="F72" t="n">
-        <v>-121.3435</v>
+        <v>-103.81025</v>
       </c>
       <c r="G72" t="n">
-        <v>0.8225008938026516</v>
+        <v>0.8056234058780658</v>
       </c>
       <c r="H72" t="n">
+        <v>0.8078186218778847</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>RF13</t>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>RF11</t>
         </is>
       </c>
     </row>
@@ -2681,29 +2899,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-1357.1045</v>
+        <v>-2200.6875</v>
       </c>
       <c r="C73" t="n">
-        <v>-70755.79255338341</v>
+        <v>-76006.7648660212</v>
       </c>
       <c r="D73" t="n">
-        <v>-186.5200800929322</v>
+        <v>-172.5343954563336</v>
       </c>
       <c r="E73" t="n">
-        <v>-265.999610062465</v>
+        <v>-275.6932441428719</v>
       </c>
       <c r="F73" t="n">
-        <v>-125.444</v>
+        <v>-102.98125</v>
       </c>
       <c r="G73" t="n">
-        <v>0.8167438121631091</v>
+        <v>0.7969975809809509</v>
       </c>
       <c r="H73" t="n">
+        <v>0.799497217921499</v>
+      </c>
+      <c r="I73" t="n">
         <v>1</v>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>RF13</t>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>RF11</t>
         </is>
       </c>
     </row>
@@ -2712,29 +2933,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-1679.399</v>
+        <v>-2087.6265</v>
       </c>
       <c r="C74" t="n">
-        <v>-70058.94388485185</v>
+        <v>-79614.00376219954</v>
       </c>
       <c r="D74" t="n">
-        <v>-185.0199847150893</v>
+        <v>-173.1323027143981</v>
       </c>
       <c r="E74" t="n">
-        <v>-264.6865011383313</v>
+        <v>-282.159536011455</v>
       </c>
       <c r="F74" t="n">
-        <v>-124.4960000000001</v>
+        <v>-102.1305</v>
       </c>
       <c r="G74" t="n">
-        <v>0.8239042460189226</v>
+        <v>0.7900759767447694</v>
       </c>
       <c r="H74" t="n">
+        <v>0.7920388331350231</v>
+      </c>
+      <c r="I74" t="n">
         <v>2</v>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>RF13</t>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>RF11</t>
         </is>
       </c>
     </row>
@@ -2743,29 +2967,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-1350.772</v>
+        <v>-2172.3485</v>
       </c>
       <c r="C75" t="n">
-        <v>-69153.74290094816</v>
+        <v>-72424.0596639049</v>
       </c>
       <c r="D75" t="n">
-        <v>-183.4890853509416</v>
+        <v>-169.5523947678993</v>
       </c>
       <c r="E75" t="n">
-        <v>-262.970992508581</v>
+        <v>-269.1171857461075</v>
       </c>
       <c r="F75" t="n">
-        <v>-123.8385</v>
+        <v>-104.49</v>
       </c>
       <c r="G75" t="n">
-        <v>0.8223910526091481</v>
+        <v>0.7981958259689879</v>
       </c>
       <c r="H75" t="n">
+        <v>0.8003198968144253</v>
+      </c>
+      <c r="I75" t="n">
         <v>3</v>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>RF13</t>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>RF11</t>
         </is>
       </c>
     </row>
@@ -2774,29 +3001,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-1225.2565</v>
+        <v>-2200.8145</v>
       </c>
       <c r="C76" t="n">
-        <v>-67636.48637417921</v>
+        <v>-74478.45507445972</v>
       </c>
       <c r="D76" t="n">
-        <v>-181.9574885057471</v>
+        <v>-166.5137144402912</v>
       </c>
       <c r="E76" t="n">
-        <v>-260.0701566388947</v>
+        <v>-272.9074111754016</v>
       </c>
       <c r="F76" t="n">
-        <v>-121.7705</v>
+        <v>-97.1869999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>0.8302572028433347</v>
+        <v>0.7935276012364406</v>
       </c>
       <c r="H76" t="n">
+        <v>0.7952756076060423</v>
+      </c>
+      <c r="I76" t="n">
         <v>4</v>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>RF13</t>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>RF11</t>
         </is>
       </c>
     </row>
@@ -2805,29 +3035,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-1779.374</v>
+        <v>-2188.8765</v>
       </c>
       <c r="C77" t="n">
-        <v>-65574.04380640267</v>
+        <v>-80696.29916048348</v>
       </c>
       <c r="D77" t="n">
-        <v>-181.8912748838347</v>
+        <v>-172.7025557741491</v>
       </c>
       <c r="E77" t="n">
-        <v>-256.0742935290512</v>
+        <v>-284.0709403661055</v>
       </c>
       <c r="F77" t="n">
-        <v>-126.3515</v>
+        <v>-99.81</v>
       </c>
       <c r="G77" t="n">
-        <v>0.8256333888497012</v>
+        <v>0.7871273916571666</v>
       </c>
       <c r="H77" t="n">
+        <v>0.7885822877945415</v>
+      </c>
+      <c r="I77" t="n">
         <v>5</v>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>RF13</t>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>RF11</t>
         </is>
       </c>
     </row>
@@ -2836,29 +3069,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-2014.5715</v>
+        <v>-2168.456500000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-72936.22200140744</v>
+        <v>-81413.09676275855</v>
       </c>
       <c r="D78" t="n">
-        <v>-186.9479427732942</v>
+        <v>-173.9114466850285</v>
       </c>
       <c r="E78" t="n">
-        <v>-270.0670694501783</v>
+        <v>-285.3298034954613</v>
       </c>
       <c r="F78" t="n">
-        <v>-123.8595</v>
+        <v>-100.105</v>
       </c>
       <c r="G78" t="n">
-        <v>0.8127933582424236</v>
+        <v>0.7830812838321988</v>
       </c>
       <c r="H78" t="n">
+        <v>0.7858156774907458</v>
+      </c>
+      <c r="I78" t="n">
         <v>6</v>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>RF13</t>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>RF11</t>
         </is>
       </c>
     </row>
@@ -2867,29 +3103,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-1467.491</v>
+        <v>-2208.7015</v>
       </c>
       <c r="C79" t="n">
-        <v>-69742.97848904623</v>
+        <v>-82471.19182869801</v>
       </c>
       <c r="D79" t="n">
-        <v>-183.6480090486672</v>
+        <v>-174.6319881959473</v>
       </c>
       <c r="E79" t="n">
-        <v>-264.0889594228548</v>
+        <v>-287.1779793589648</v>
       </c>
       <c r="F79" t="n">
-        <v>-120.4505</v>
+        <v>-103.103</v>
       </c>
       <c r="G79" t="n">
-        <v>0.8229828830224226</v>
+        <v>0.7720055739797325</v>
       </c>
       <c r="H79" t="n">
+        <v>0.7730767130880846</v>
+      </c>
+      <c r="I79" t="n">
         <v>7</v>
       </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>RF13</t>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>RF11</t>
         </is>
       </c>
     </row>
@@ -2898,29 +3137,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-1648.171</v>
+        <v>-2057.1225</v>
       </c>
       <c r="C80" t="n">
-        <v>-68527.92787011103</v>
+        <v>-83188.55036815989</v>
       </c>
       <c r="D80" t="n">
-        <v>-183.2819391049156</v>
+        <v>-177.3812336218768</v>
       </c>
       <c r="E80" t="n">
-        <v>-261.7783945823471</v>
+        <v>-288.4242541260355</v>
       </c>
       <c r="F80" t="n">
-        <v>-121.8105</v>
+        <v>-102.6305</v>
       </c>
       <c r="G80" t="n">
-        <v>0.8293232490113578</v>
+        <v>0.7810109455959597</v>
       </c>
       <c r="H80" t="n">
+        <v>0.7833755343232055</v>
+      </c>
+      <c r="I80" t="n">
         <v>8</v>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>RF13</t>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>RF11</t>
         </is>
       </c>
     </row>
@@ -2929,29 +3171,1392 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-1966.251</v>
+        <v>-2197.841</v>
       </c>
       <c r="C81" t="n">
-        <v>-71366.72752811862</v>
+        <v>-77256.26940606069</v>
       </c>
       <c r="D81" t="n">
-        <v>-185.0523775984348</v>
+        <v>-174.7214717686406</v>
       </c>
       <c r="E81" t="n">
-        <v>-267.1455175145535</v>
+        <v>-277.9501203562623</v>
       </c>
       <c r="F81" t="n">
-        <v>-124.7335</v>
+        <v>-104.83</v>
       </c>
       <c r="G81" t="n">
-        <v>0.8100512854883167</v>
+        <v>0.7962075094932136</v>
       </c>
       <c r="H81" t="n">
+        <v>0.7986055295906443</v>
+      </c>
+      <c r="I81" t="n">
         <v>9</v>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>RF11</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-2006.759</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-64808.98762445898</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-156.6939758064516</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-254.5760939767499</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-91.50675000000021</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.8243876458450845</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.825356526767247</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>RF12</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-2263.7205</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-68514.57980090122</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-159.4155563532651</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-261.752898361988</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-92.71974999999996</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.8170080589251013</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.8183428123328211</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>RF12</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-2273.933</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-72993.3418384192</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-162.1852286585366</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-270.1727999603572</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-94.84450000000001</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.8075331566625639</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.8084883301838832</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>RF12</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-2181.198</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-65474.36902050202</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-158.3972268882769</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-255.8795986797346</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-96.44625000000002</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.8175606142254235</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.8185123626989776</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>RF12</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-2250.027</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-67752.62161789868</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-155.5554025181979</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-260.2933376364034</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-87.63</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.8121732480355318</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.8130529102474433</v>
+      </c>
+      <c r="I86" t="n">
+        <v>4</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>RF12</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-2253.9975</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-71108.42322826057</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-160.6770735785953</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-266.6616268386971</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-92.20349999999999</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.8124197059193209</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.8129321552151243</v>
+      </c>
+      <c r="I87" t="n">
+        <v>5</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>RF12</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-2257.777</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-72886.32882689263</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-160.5421840448554</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-269.9746818257087</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-90.09750000000001</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.8058001783007223</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.8067697808502025</v>
+      </c>
+      <c r="I88" t="n">
+        <v>6</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>RF12</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-2280.535</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-71640.36655840611</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-160.8792316545347</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-267.6571810327646</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-91.2075</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.8019477602883185</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.8023751840051019</v>
+      </c>
+      <c r="I89" t="n">
+        <v>7</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>RF12</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-2359.8565</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-71568.53335850649</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-160.9930643320874</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-267.5229585633848</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-90.57899999999999</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.8115999692757956</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.8127965023962442</v>
+      </c>
+      <c r="I90" t="n">
+        <v>8</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>RF12</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-2394.019</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-68857.35365313226</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-160.7069898681881</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-262.4068475728716</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-93.48000000000002</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.8183628112183017</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.8195918420375632</v>
+      </c>
+      <c r="I91" t="n">
+        <v>9</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>RF12</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-1993.287</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-64445.90902887062</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-157.2483246459481</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-253.8619881527572</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-91.999</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.8253714767804481</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.8260261317797668</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr">
         <is>
           <t>RF13</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-2250.5405</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-67687.27031351047</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-158.350432238395</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-260.1677733953813</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-89.48400000000001</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.8192176757600472</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.8201978218947525</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>RF13</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-2326.5865</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-74051.62601354769</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-164.0723086152636</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-272.1242841305195</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-94.71825000000001</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.8047427019524366</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.8053765186200129</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>RF13</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-2169.9815</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-66993.86978045461</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-160.2160374704957</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-258.831740287884</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-97.54775000000001</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.8133266400844439</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.8141021717904747</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>RF13</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-2184.675</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-67257.67543752538</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-156.9508473342514</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-259.3408479926087</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-88.22349999999983</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.8135453592725114</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.8140595017235024</v>
+      </c>
+      <c r="I96" t="n">
+        <v>4</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>RF13</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-2258.927</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-70388.62511844531</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-160.3689706866024</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-265.308547013558</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-91.64749999999998</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.8143184956124132</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.8147153841913829</v>
+      </c>
+      <c r="I97" t="n">
+        <v>5</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>RF13</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-2276.4645</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-69847.38556940811</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-159.1059051741098</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-264.2865595701153</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-89.11699999999999</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.8138972007225728</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.8145744420860141</v>
+      </c>
+      <c r="I98" t="n">
+        <v>6</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>RF13</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-2239.2545</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-72349.3742014302</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-160.4612967735589</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-268.9783898409502</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-88.48649999999999</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.7999876844481266</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.8003303610482787</v>
+      </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>RF13</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-2328.905</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-72102.43708589963</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-162.8095629549479</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-268.5189696946933</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-92.68449999999996</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.8101944985483076</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.8110410588008796</v>
+      </c>
+      <c r="I100" t="n">
+        <v>8</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>RF13</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-2286.208</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-69805.65924857713</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-161.9770940389534</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-264.2076063412579</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-93.67649999999995</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.8158612982596386</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.81675822081327</v>
+      </c>
+      <c r="I101" t="n">
+        <v>9</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>RF13</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-1849.34525</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-63891.73786918649</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-156.5958961447679</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-252.7681504248241</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-92.4315</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.8268731095867003</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.8278213140795216</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>RF212</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-2173.436500000001</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-66375.53416953555</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-157.745411536192</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-257.6344972427713</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-92.28887499999996</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.8227211219442259</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.8240892763001177</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>RF212</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-2264.147</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-71860.16292720679</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-160.5224636605035</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-268.0674596574653</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-94.39887499999992</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.8105210917602663</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.8113580554409632</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>RF212</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-2150.611</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-63468.62830846909</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-157.2383722954366</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-251.9298082968133</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-96.69674999999999</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.8231494592803756</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.8240402226604949</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>RF212</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-2255.41075</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-67982.96623212841</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-155.7468151190242</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-260.7354334035334</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-87.70400000000001</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.8115346767199114</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.8123311837324969</v>
+      </c>
+      <c r="I106" t="n">
+        <v>4</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>RF212</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-2237.4505</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-69874.8690605177</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-159.2978774837694</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-264.338550084012</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-93.09999999999999</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.8156737571701395</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.8161485287933337</v>
+      </c>
+      <c r="I107" t="n">
+        <v>5</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>RF212</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-2109.287</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-70997.60050468407</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-159.6234896222703</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-266.4537492787146</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-90.99650000000003</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.810832544580034</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.811755828708922</v>
+      </c>
+      <c r="I108" t="n">
+        <v>6</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>RF212</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-2154.03775</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-70893.94220749478</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-159.6788750245918</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-266.2591636122497</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-90.67750000000007</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.804011275895163</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.8045966722805492</v>
+      </c>
+      <c r="I109" t="n">
+        <v>7</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>RF212</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-2363.67725</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-72035.90988454362</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-161.1121137123746</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-268.3950630778137</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-89.84725000000003</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.8103696275636904</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.8114103383072697</v>
+      </c>
+      <c r="I110" t="n">
+        <v>8</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>RF212</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-2117.8905</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-67815.23846188212</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-159.6969660633484</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-260.4135911619862</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-93.94475000000011</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.8211117822966691</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.8223420060852112</v>
+      </c>
+      <c r="I111" t="n">
+        <v>9</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>RF212</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-1812.9751</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-63619.94956430852</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-155.7688348741149</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-252.2299537412409</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-91.68894999999998</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.8276095720095971</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.8286220683905585</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>RF512</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-2239.513099999999</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-66925.58185875024</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-157.7460207710464</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-258.6997909909288</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-92.65184999999995</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.8212520288749017</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.8225425862018499</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>RF512</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-2245.271499999999</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-71987.09988064108</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-160.8347288355625</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-268.304118269998</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-95.00389999999999</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.8101863878802268</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.8111448964549693</v>
+      </c>
+      <c r="I114" t="n">
+        <v>2</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>RF512</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-2175.9992</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-63678.20920110033</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-157.4579308418568</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-252.3454164455941</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-96.55915</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.8225654779470121</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.8235235339738221</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>RF512</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-2239.8892</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-66764.53024696597</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-154.7786247885107</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-258.3883322577975</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-86.85909999999998</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.8149124777275292</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.81563499033555</v>
+      </c>
+      <c r="I116" t="n">
+        <v>4</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>RF512</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-2194.1272</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-69540.62960966284</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-158.3105212472949</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-263.7055737174754</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-92.4768</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.8165554633258709</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.817118981129878</v>
+      </c>
+      <c r="I117" t="n">
+        <v>5</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>RF512</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-2074.9735</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-70540.43263377804</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-159.2195789100925</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-265.5944890877407</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-91.00790000000001</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.8120506319833308</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.8129702329337285</v>
+      </c>
+      <c r="I118" t="n">
+        <v>6</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>RF512</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-2094.9701</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-69868.43567640902</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-158.7342906551249</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-264.3263809694541</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-91.4914</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.8068463237191423</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.80733568091403</v>
+      </c>
+      <c r="I119" t="n">
+        <v>7</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>RF512</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-2322.2377</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-72164.79678897593</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-161.1435446586661</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-268.635062471331</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-90.46309999999994</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.8100303402314579</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.8111378471721781</v>
+      </c>
+      <c r="I120" t="n">
+        <v>8</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>RF512</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-2208.6886</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-67749.19001634404</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-159.770783139878</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-260.2867457561834</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-91.74820000000022</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.8212860099329993</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.8226609397801985</v>
+      </c>
+      <c r="I121" t="n">
+        <v>9</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>RF512</t>
         </is>
       </c>
     </row>
